--- a/kaggle_account_Tuan.xlsx
+++ b/kaggle_account_Tuan.xlsx
@@ -41,9 +41,6 @@
     <t>dasanbob2@gmail.com</t>
   </si>
   <si>
-    <t>dasanbob3</t>
-  </si>
-  <si>
     <t>dasanbob4</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>dasanbob</t>
+  </si>
+  <si>
+    <t>azurebob2</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="H12:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>2</v>
@@ -448,10 +448,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="16" spans="8:10" x14ac:dyDescent="0.25">
@@ -459,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="8:10" x14ac:dyDescent="0.25">
@@ -470,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="18" spans="8:10" x14ac:dyDescent="0.25">
@@ -481,10 +481,10 @@
         <v>6</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
